--- a/Benefit/Benefit_2019.xlsx
+++ b/Benefit/Benefit_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Documents/PSTAT296B/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA02F63-DA7C-3D43-85E0-405A993D4D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E12009D-866C-1343-8607-5E92991777C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{2A7422B7-2066-1F4C-A261-05DD6E83D79E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{2A7422B7-2066-1F4C-A261-05DD6E83D79E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="112">
   <si>
     <t>Contract_ID</t>
   </si>
@@ -354,6 +354,24 @@
   </si>
   <si>
     <t>https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9011&amp;contractId=H5854&amp;planId=011&amp;segmentId=0&amp;plan=Anthem%20MediBlue%20Extra%20(HMO)%20-%20H5854-011-0&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname</t>
+  </si>
+  <si>
+    <t>14c18_Therapeutic_Massage</t>
+  </si>
+  <si>
+    <t>14c19_Adult_Day_Health_Services</t>
+  </si>
+  <si>
+    <t>14c20_Home-Based_Palliative_Care</t>
+  </si>
+  <si>
+    <t>14c21_In-Home_Support_Services</t>
+  </si>
+  <si>
+    <t>14c22_Support_for_Caregivers_of_Enrollees</t>
+  </si>
+  <si>
+    <t>https://q1medicare.com/MedicareAdvantage-2019CHealthPlanBenefitsPlainText.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9011&amp;contractId=H3528&amp;planId=012&amp;segmentId=2&amp;plan=ConnectiCare%20Flex%20Plan%202%20(HMO-POS)%20-%20H3528-012-2&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=plaintexticon</t>
   </si>
 </sst>
 </file>
@@ -422,9 +440,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,18 +758,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBDA348-3B7C-474E-84A8-64399280AA09}">
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:BX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CI19" sqref="CI19"/>
+      <selection activeCell="BV34" sqref="BV34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="4"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,10 +1003,25 @@
         <v>69</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1177,11 +1232,26 @@
       <c r="BR2" s="1">
         <v>0</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -1392,11 +1462,26 @@
       <c r="BR3" s="1">
         <v>0</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BS3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -1607,11 +1692,26 @@
       <c r="BR4" s="1">
         <v>0</v>
       </c>
-      <c r="BS4" s="5" t="s">
+      <c r="BS4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX4" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -1822,11 +1922,26 @@
       <c r="BR5" s="1">
         <v>0</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BS5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX5" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -2037,11 +2152,26 @@
       <c r="BR6" s="1">
         <v>0</v>
       </c>
-      <c r="BS6" s="3" t="s">
+      <c r="BS6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX6" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -2054,7 +2184,7 @@
       <c r="D7" s="1">
         <v>2019</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>4</v>
       </c>
       <c r="F7" s="1">
@@ -2252,11 +2382,26 @@
       <c r="BR7" s="1">
         <v>0</v>
       </c>
-      <c r="BS7" s="3" t="s">
+      <c r="BS7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2467,11 +2612,26 @@
       <c r="BR8" s="1">
         <v>0</v>
       </c>
-      <c r="BS8" s="3" t="s">
+      <c r="BS8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX8" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2682,11 +2842,26 @@
       <c r="BR9" s="1">
         <v>0</v>
       </c>
-      <c r="BS9" s="3" t="s">
+      <c r="BS9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX9" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -2897,11 +3072,26 @@
       <c r="BR10" s="1">
         <v>0</v>
       </c>
-      <c r="BS10" s="3" t="s">
+      <c r="BS10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX10" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -3112,11 +3302,26 @@
       <c r="BR11" s="1">
         <v>0</v>
       </c>
-      <c r="BS11" s="3" t="s">
+      <c r="BS11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX11" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -3327,11 +3532,26 @@
       <c r="BR12" s="1">
         <v>0</v>
       </c>
-      <c r="BS12" s="3" t="s">
+      <c r="BS12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX12" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
@@ -3542,11 +3762,26 @@
       <c r="BR13" s="1">
         <v>0</v>
       </c>
-      <c r="BS13" s="3" t="s">
+      <c r="BS13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX13" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -3757,11 +3992,26 @@
       <c r="BR14" s="1">
         <v>0</v>
       </c>
-      <c r="BS14" s="3" t="s">
+      <c r="BS14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -3972,11 +4222,26 @@
       <c r="BR15" s="1">
         <v>0</v>
       </c>
-      <c r="BS15" s="3" t="s">
+      <c r="BS15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX15" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -4187,11 +4452,26 @@
       <c r="BR16" s="1">
         <v>0</v>
       </c>
-      <c r="BS16" s="3" t="s">
+      <c r="BS16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX16" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -4402,11 +4682,26 @@
       <c r="BR17" s="1">
         <v>0</v>
       </c>
-      <c r="BS17" s="3" t="s">
+      <c r="BS17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX17" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -4617,11 +4912,26 @@
       <c r="BR18" s="1">
         <v>0</v>
       </c>
-      <c r="BS18" s="3" t="s">
+      <c r="BS18" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX18" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -4832,11 +5142,26 @@
       <c r="BR19" s="1">
         <v>0</v>
       </c>
-      <c r="BS19" s="3" t="s">
+      <c r="BS19" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX19" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -5047,11 +5372,26 @@
       <c r="BR20" s="1">
         <v>0</v>
       </c>
-      <c r="BS20" s="3" t="s">
+      <c r="BS20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX20" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -5064,7 +5404,7 @@
       <c r="D21" s="1">
         <v>2019</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="1">
@@ -5262,11 +5602,26 @@
       <c r="BR21" s="1">
         <v>0</v>
       </c>
-      <c r="BS21" s="3" t="s">
+      <c r="BS21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX21" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -5477,11 +5832,26 @@
       <c r="BR22" s="1">
         <v>0</v>
       </c>
-      <c r="BS22" s="3" t="s">
+      <c r="BS22" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -5692,11 +6062,26 @@
       <c r="BR23" s="1">
         <v>0</v>
       </c>
-      <c r="BS23" s="5" t="s">
+      <c r="BS23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX23" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -5907,11 +6292,26 @@
       <c r="BR24" s="1">
         <v>0</v>
       </c>
-      <c r="BS24" s="5" t="s">
+      <c r="BS24" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX24" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -6122,11 +6522,26 @@
       <c r="BR25" s="1">
         <v>0</v>
       </c>
-      <c r="BS25" s="3" t="s">
+      <c r="BS25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -6337,11 +6752,26 @@
       <c r="BR26" s="1">
         <v>0</v>
       </c>
-      <c r="BS26" s="3" t="s">
+      <c r="BS26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX26" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -6552,11 +6982,26 @@
       <c r="BR27" s="1">
         <v>0</v>
       </c>
-      <c r="BS27" s="3" t="s">
+      <c r="BS27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX27" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -6767,11 +7212,26 @@
       <c r="BR28" s="1">
         <v>0</v>
       </c>
-      <c r="BS28" s="3" t="s">
+      <c r="BS28" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX28" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -6982,15 +7442,261 @@
       <c r="BR29" s="1">
         <v>0</v>
       </c>
-      <c r="BS29" s="3" t="s">
+      <c r="BS29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX29" s="3" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>140</v>
+      </c>
+      <c r="G30" s="1">
+        <v>300</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>375</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>15</v>
+      </c>
+      <c r="V30" s="1">
+        <v>50</v>
+      </c>
+      <c r="W30" s="1">
+        <v>50</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>35</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>90</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>35</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>300</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>300</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>300</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>42</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>95</v>
+      </c>
+      <c r="AW30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AY30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX30" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BS4" r:id="rId1" display="https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9011&amp;contractId=H0712&amp;planId=021&amp;segmentId=0&amp;plan=WellCare%20Preferred%20(HMO)%20-%20H0712-021-0&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname" xr:uid="{09B79026-22BC-A948-9321-60C9D401EEBD}"/>
-    <hyperlink ref="BS23" r:id="rId2" display="https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9015&amp;contractId=H3528&amp;planId=011&amp;segmentId=2&amp;plan=ConnectiCare%20Flex%20Plan%203%20(HMO-POS)%20-%20H3528-011-2&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname" xr:uid="{F56F5FB9-F918-8646-AF9C-E2C8AD534CD3}"/>
-    <hyperlink ref="BS24" r:id="rId3" display="https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9003&amp;contractId=H3528&amp;planId=012&amp;segmentId=1&amp;plan=ConnectiCare%20Flex%20Plan%202%20(HMO-POS)%20-%20H3528-012-1&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname" xr:uid="{50000D26-53A1-0F47-8403-92D93CED8E23}"/>
+    <hyperlink ref="BX4" r:id="rId1" display="https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9011&amp;contractId=H0712&amp;planId=021&amp;segmentId=0&amp;plan=WellCare%20Preferred%20(HMO)%20-%20H0712-021-0&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname" xr:uid="{09B79026-22BC-A948-9321-60C9D401EEBD}"/>
+    <hyperlink ref="BX23" r:id="rId2" display="https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9015&amp;contractId=H3528&amp;planId=011&amp;segmentId=2&amp;plan=ConnectiCare%20Flex%20Plan%203%20(HMO-POS)%20-%20H3528-011-2&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname" xr:uid="{F56F5FB9-F918-8646-AF9C-E2C8AD534CD3}"/>
+    <hyperlink ref="BX24" r:id="rId3" display="https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9003&amp;contractId=H3528&amp;planId=012&amp;segmentId=1&amp;plan=ConnectiCare%20Flex%20Plan%202%20(HMO-POS)%20-%20H3528-012-1&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname" xr:uid="{50000D26-53A1-0F47-8403-92D93CED8E23}"/>
+    <hyperlink ref="BX30" r:id="rId4" display="https://q1medicare.com/MedicareAdvantage-2019CHealthPlanBenefitsPlainText.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9011&amp;contractId=H3528&amp;planId=012&amp;segmentId=2&amp;plan=ConnectiCare%20Flex%20Plan%202%20(HMO-POS)%20-%20H3528-012-2&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=plaintexticon" xr:uid="{565CA808-EADA-2C48-B71D-78D44EAB985A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
